--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>PO#</t>
   </si>
@@ -91,9 +91,6 @@
     <t>US202012752</t>
   </si>
   <si>
-    <t>HYNIX</t>
-  </si>
-  <si>
     <t>18 pcs*617119807021 FEDEX</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>'Roy Han' &lt;roy.han@us.skhynix.com&gt;</t>
   </si>
   <si>
-    <t>Heuchert, Mark</t>
-  </si>
-  <si>
     <t>DIMMs</t>
   </si>
   <si>
@@ -167,6 +161,15 @@
   </si>
   <si>
     <t>erial I</t>
+  </si>
+  <si>
+    <t>TPM</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>some supplier</t>
   </si>
 </sst>
 </file>
@@ -591,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -660,19 +663,19 @@
         <v>201575163</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
@@ -684,16 +687,16 @@
         <v>450928347</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -704,19 +707,19 @@
         <v>201575163</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
@@ -728,16 +731,16 @@
         <v>50298475</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -748,19 +751,19 @@
         <v>201575163</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -772,16 +775,16 @@
         <v>523098475</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -792,19 +795,19 @@
         <v>201575163</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>19</v>
@@ -816,16 +819,16 @@
         <v>2934875</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -836,19 +839,19 @@
         <v>201575163</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>20</v>
@@ -860,16 +863,16 @@
         <v>2398475</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -880,19 +883,19 @@
         <v>201575163</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>21</v>
@@ -904,16 +907,16 @@
         <v>59238745</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -962,10 +965,10 @@
         <v>201575163</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -979,7 +982,7 @@
         <v>201575163</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -996,10 +999,10 @@
         <v>201575163</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1013,10 +1016,10 @@
         <v>201575163</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1030,10 +1033,10 @@
         <v>201575163</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1047,10 +1050,10 @@
         <v>201575163</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>1</v>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
   <si>
     <t>PO#</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>R62889574</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>CANDLESTICK</t>
+  </si>
+  <si>
+    <t>Not Arrived</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -705,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -727,7 +739,7 @@
     <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -770,8 +782,11 @@
       <c r="N1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -814,13 +829,16 @@
       <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>62889574</v>
       </c>
       <c r="B3">
-        <v>201560400</v>
+        <v>201560401</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
@@ -858,13 +876,16 @@
       <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>62889481</v>
       </c>
       <c r="B4">
-        <v>201560400</v>
+        <v>201560402</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
@@ -902,13 +923,16 @@
       <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
-        <v>62889481</v>
+        <v>62889482</v>
       </c>
       <c r="B5">
-        <v>201560400</v>
+        <v>201560403</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -946,13 +970,16 @@
       <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
-        <v>62889481</v>
+        <v>62889483</v>
       </c>
       <c r="B6">
-        <v>201560400</v>
+        <v>201560404</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>18</v>
@@ -990,13 +1017,16 @@
       <c r="N6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>62889481</v>
+        <v>62889484</v>
       </c>
       <c r="B7">
-        <v>201560400</v>
+        <v>201560405</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
@@ -1034,13 +1064,16 @@
       <c r="N7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>62889474</v>
       </c>
       <c r="B8">
-        <v>201572619</v>
+        <v>201560406</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>18</v>
@@ -1078,19 +1111,22 @@
       <c r="N8" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
-        <v>62889474</v>
+        <v>62889475</v>
       </c>
       <c r="B9">
-        <v>201572619</v>
+        <v>201560407</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1122,19 +1158,22 @@
       <c r="N9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
-        <v>62889474</v>
+        <v>62889476</v>
       </c>
       <c r="B10">
-        <v>201572619</v>
+        <v>201560408</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1166,19 +1205,22 @@
       <c r="N10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
-        <v>62889474</v>
+        <v>62889477</v>
       </c>
       <c r="B11">
-        <v>201572619</v>
+        <v>201560409</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1210,19 +1252,22 @@
       <c r="N11" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>62888132</v>
       </c>
       <c r="B12">
-        <v>201572619</v>
+        <v>201560410</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1254,19 +1299,22 @@
       <c r="N12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4">
-        <v>62888132</v>
+        <v>62888133</v>
       </c>
       <c r="B13">
-        <v>201572619</v>
+        <v>201560411</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1298,19 +1346,22 @@
       <c r="N13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4">
-        <v>62889463</v>
+        <v>62889465</v>
       </c>
       <c r="B14">
-        <v>201572619</v>
+        <v>201560412</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1342,19 +1393,22 @@
       <c r="N14" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>62890630</v>
       </c>
       <c r="B15">
-        <v>201572619</v>
+        <v>201560413</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1386,19 +1440,22 @@
       <c r="N15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
-        <v>62890630</v>
+        <v>62890631</v>
       </c>
       <c r="B16">
-        <v>201572619</v>
+        <v>201560414</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1430,13 +1487,16 @@
       <c r="N16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4">
-        <v>62890630</v>
+        <v>62890632</v>
       </c>
       <c r="B17">
-        <v>201572619</v>
+        <v>201560415</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>18</v>
@@ -1473,6 +1533,9 @@
       </c>
       <c r="N17" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
